--- a/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3B43CA8-0BF2-45AA-AA8B-BBBDF58A6588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DE26088-E84F-4155-B6BA-ED57CD1AA703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32F94F2E-D626-4E6D-A950-96274CAE65AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ADC43EA-425C-4C61-97BF-84A45687837A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -296,31 +296,31 @@
     <t>33,31%</t>
   </si>
   <si>
-    <t>48,99%</t>
+    <t>50,1%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
   </si>
   <si>
     <t>41,91%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
   </si>
   <si>
     <t>58,74%</t>
   </si>
   <si>
-    <t>51,01%</t>
+    <t>49,9%</t>
   </si>
   <si>
     <t>66,69%</t>
@@ -329,136 +329,136 @@
     <t>57,4%</t>
   </si>
   <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>58,09%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
   </si>
   <si>
     <t>61,38%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
   </si>
   <si>
     <t>36,15%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>43,34%</t>
@@ -467,31 +467,31 @@
     <t>39,97%</t>
   </si>
   <si>
-    <t>46,54%</t>
+    <t>46,86%</t>
   </si>
   <si>
     <t>39,8%</t>
   </si>
   <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
   </si>
   <si>
     <t>56,66%</t>
   </si>
   <si>
-    <t>53,46%</t>
+    <t>53,14%</t>
   </si>
   <si>
     <t>60,03%</t>
@@ -500,172 +500,172 @@
     <t>60,2%</t>
   </si>
   <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>54,68%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAC6F9B-47B1-4705-A255-4B77967BF161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A29E63-099B-4867-95EE-96A23B9D745D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0583CFB8-D849-4ECD-8551-BFB800481C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC2FCB-0E25-448A-9945-5C5A02DF0E44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3515,7 +3515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AC4EBF-2635-4E30-8AE8-12E29715141A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08BCBB4-94D2-4E35-9030-F9AB684E8612}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4182,7 +4182,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4233,7 +4233,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AD0847-8429-4D74-974A-F747730F4C53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC502414-6613-4F8E-9B8F-1390E6862DA3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5681,7 +5681,7 @@
         <v>572</v>
       </c>
       <c r="D20" s="7">
-        <v>389945</v>
+        <v>389946</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>182</v>
@@ -5732,7 +5732,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DE26088-E84F-4155-B6BA-ED57CD1AA703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D875D8-8C29-4188-8A53-09FCFAFB734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9ADC43EA-425C-4C61-97BF-84A45687837A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C28F5447-899F-4D42-A25D-671B17CECBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -260,7 +260,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A29E63-099B-4867-95EE-96A23B9D745D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E563E8-13BB-4DB6-811F-BCAF75BEA430}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,7 +2179,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2209,7 +2209,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2230,7 +2230,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2260,7 +2260,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC2FCB-0E25-448A-9945-5C5A02DF0E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0991BCC3-4D35-4139-A6C9-1D8E616DF417}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3515,7 +3515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08BCBB4-94D2-4E35-9030-F9AB684E8612}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE3F3B-59BE-4F5B-BCC2-551384A6A0AA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4182,7 +4182,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4233,7 +4233,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC502414-6613-4F8E-9B8F-1390E6862DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F29638-281C-4EF3-8438-4926C87DBD4C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D875D8-8C29-4188-8A53-09FCFAFB734C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3490BFBD-71BC-4979-BB84-7F299D1997BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C28F5447-899F-4D42-A25D-671B17CECBAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93DE4AF9-9436-4599-B198-D2829E941A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="209">
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -203,7 +203,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -260,7 +260,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -287,7 +287,7 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>Hogares con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
+    <t>Población con problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
   <si>
     <t>41,26%</t>
@@ -296,31 +296,31 @@
     <t>33,31%</t>
   </si>
   <si>
-    <t>50,1%</t>
+    <t>48,99%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>41,91%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
   </si>
   <si>
     <t>58,74%</t>
   </si>
   <si>
-    <t>49,9%</t>
+    <t>51,01%</t>
   </si>
   <si>
     <t>66,69%</t>
@@ -329,136 +329,136 @@
     <t>57,4%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>58,09%</t>
   </si>
   <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>54,7%</t>
   </si>
   <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
   </si>
   <si>
     <t>58,18%</t>
   </si>
   <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
   </si>
   <si>
     <t>38,62%</t>
   </si>
   <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>35,35%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
   </si>
   <si>
     <t>61,38%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
   </si>
   <si>
     <t>64,65%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
   </si>
   <si>
     <t>63,09%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>36,15%</t>
   </si>
   <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
   <si>
     <t>43,34%</t>
@@ -467,31 +467,31 @@
     <t>39,97%</t>
   </si>
   <si>
-    <t>46,86%</t>
+    <t>46,54%</t>
   </si>
   <si>
     <t>39,8%</t>
   </si>
   <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>63,85%</t>
   </si>
   <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>56,66%</t>
   </si>
   <si>
-    <t>53,14%</t>
+    <t>53,46%</t>
   </si>
   <si>
     <t>60,03%</t>
@@ -500,172 +500,172 @@
     <t>60,2%</t>
   </si>
   <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
   </si>
   <si>
     <t>45,32%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
   </si>
   <si>
     <t>43,26%</t>
   </si>
   <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>54,68%</t>
   </si>
   <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>56,74%</t>
   </si>
   <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
   </si>
   <si>
     <t>39,56%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>60,44%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
   </si>
   <si>
     <t>40,82%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>40,32%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>59,18%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
   </si>
   <si>
     <t>60,12%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E563E8-13BB-4DB6-811F-BCAF75BEA430}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFB7C05-E762-4A07-BCCE-ACC7E1E983C8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,7 +2179,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2209,7 +2209,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2230,7 +2230,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2260,7 +2260,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2296,7 +2296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0991BCC3-4D35-4139-A6C9-1D8E616DF417}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C87602-C76F-40C7-9726-000832466197}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3515,7 +3515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE3F3B-59BE-4F5B-BCC2-551384A6A0AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC083A7-D01A-4450-9405-A2FD9296D5CB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F29638-281C-4EF3-8438-4926C87DBD4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CD68D6-76E2-401B-B2ED-72A8D642576E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5681,7 +5681,7 @@
         <v>572</v>
       </c>
       <c r="D20" s="7">
-        <v>389946</v>
+        <v>389945</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>182</v>
@@ -5732,7 +5732,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
